--- a/biology/Botanique/Nivéole/Nivéole.xlsx
+++ b/biology/Botanique/Nivéole/Nivéole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Niv%C3%A9ole</t>
+          <t>Nivéole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nivéoles sont des plantes herbacées pérennes, à bulbes, de la famille des Amaryllidaceae.
 Il existe onze espèces de nivéoles. Le cladisme et le séquençage de l'ADN ont montré que les espèces Leucojum vernum et Leucojum aestivum étaient plus étroitement apparentées au genre Galanthus qu'aux autres espèces jusqu'ici placées dans le genre Leucojum. Ces neuf autres espèces, plus éloignées, ont été placées dans le genre Acis - un genre proposé dès 1807, qui est ainsi revenu à l'ordre du jour.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Niv%C3%A9ole</t>
+          <t>Nivéole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire de nivéole vient du latin niveus, « neige », en référence à la floraison précoce de la fleur, parfois lorsque la neige est encore présente[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire de nivéole vient du latin niveus, « neige », en référence à la floraison précoce de la fleur, parfois lorsque la neige est encore présente.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Niv%C3%A9ole</t>
+          <t>Nivéole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les espèces qu’on trouve en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre six espèces de nivéoles en France, dont quatre en France continentale :
 la plus commune, bien que n'existant que dans la partie nord et est du territoire est la nivéole de printemps (Leucojum vernum) que l'on observe en fleur dès la mi-février. Certaines stations sont très éloignées les unes des autres. La hampe florale triangulaire et la floraison précoce la distingue de la nivéole d'été (Leucojum aestivum), beaucoup plus rare, des fossés et lieux humides, et de la rare nivéole de Nice, Acis nicaeensis (anciennement Leucojum nicaeense) aux quelques stations limitées à la Riviera niçoise (Beausoleil, le mont des Mules). La quatrième espèce de France continentale, la nivéole de Fabre, Acis fabrei (anciennement Leucojum fabrei) n'existe que sur le versant sud du Mont Ventoux (Vaucluse), où seules trois localités sont connues.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Niv%C3%A9ole</t>
+          <t>Nivéole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Les espèces du genre Leucojum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Seules la nivéole de printemps et la nivéole d'été font actuellement encore partie du genre Leucojum sensu stricto. Ce sont des espèces paneuropéennes.
 La nivéole de printemps, Leucojum vernum L., se rencontre depuis l'Est et le Nord de la France jusqu'en Europe orientale.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Niv%C3%A9ole</t>
+          <t>Nivéole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Les espèces du genre Acis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les 9 autres espèces, qui ont en général une distribution très limitée, sont maintenant rattachées au genre Acis.
 Espèces à floraison printanière
@@ -621,7 +641,7 @@
 Espèces à floraison automnale
 La nivéole d'automne, Acis autumnalis (L.) Herb. : partie occidentale de la région méditerranéenne et Portugal
 La nivéole de Valence, Acis valentina (Pau) Lledó, A.P.Davis &amp; M.B.Crespo : Sud-Est de l'Espagne
-Acis ionica[2] : côte adriatique de la Grèce et de l'Albanie
+Acis ionica : côte adriatique de la Grèce et de l'Albanie
 La nivéole rose, Acis rosea (F.Martin) Sweet : Corse et Sardaigne</t>
         </is>
       </c>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Niv%C3%A9ole</t>
+          <t>Nivéole</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Frederick C Stern, Snowdrops and snowflakes, Royal Horticultural Society (London), 1956
 Dolores Lledo, Aaron Davis, Manuel Crespo, Mark Chase, Michael Fay, Phylogenetic analysis of Leucojum and Galanthus (Amaryllidaceae) based on plastid matK and nuclear ribosomal spacer (ITS) DNA sequences and morphology, Plant Syst. Evol, 246 (3-4) : 223-243.
